--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:28:19+00:00</t>
+    <t>2024-05-28T06:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,7 +391,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/komorbiditaeten</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/comorbidities</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Erstabklaerung.EKG</t>
@@ -427,7 +427,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/symptomatik</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/symptoms</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Erstabklaerung.Kardiologe</t>
@@ -447,7 +447,7 @@
     <t>HFrEF | HFmrEF | HFpEF</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/diagnose</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/diagnosis</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Erstabklaerung.Behandlungsziel</t>
@@ -510,7 +510,7 @@
     <t>Evidenzbasierte Zieldosis (Erreicht | Nicht erreicht | Titrationsphase | Max. tolerierte Dosis erreicht)</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/zieldosis</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/targetdose</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Therapie.Komedikation</t>
@@ -986,7 +986,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.61328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T06:35:41+00:00</t>
+    <t>2024-05-28T08:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:58:35+00:00</t>
+    <t>2024-05-28T14:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:58+00:00</t>
+    <t>2024-05-29T09:10:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-Erstdokumentation-hi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:10:17+00:00</t>
+    <t>2024-05-29T09:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
